--- a/實驗記錄.xlsx
+++ b/實驗記錄.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\中央資管\論文\自己的論文\Data_Browsing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AEFF67-A40D-4995-9356-C9D1227E7C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E69E94-6053-438A-B161-F27EDB2DFF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{081E8F96-FC13-4278-B82D-E5FFD4D02652}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>usecase</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,241 +35,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.資料太少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>應對</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>動態調整切分區間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.策略不對</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.相關係數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.資料區間長/短</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Q1季報發布後,比大盤貨櫃買好的個股</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3個月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的表現</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.子圖用不同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Q1季報發布後,比大盤貨櫃買好的個股</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6個月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的表現</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>券資比
-單月營收與上月比％</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">成長月數
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>日均量
-區間融券餘額</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>張</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">變化
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>日均量</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -282,100 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Q1季報發布後,雙率雙升的個股</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3個月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的表現</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Q1季報發布後,雙率雙升的個股</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6個月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的表現</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>券資比
 產業名稱
 單月營收與上月比％-成長月數
@@ -392,20 +71,287 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
+    <t>總資產成長率
+已實現銷貨毛利成長率
+營業毛利成長率
+產業名稱
+10日均量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>營業利益率
+當季季底PSR
+融資增減比率
+當季季底P/B
+10日均量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.資料區間長/短</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同策略調整不同區間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>採用不同策略(財報、大盤、finlab)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.評估後散佈圖改為回歸圖
+2.當子圖的X市類別型資料,則不繪圖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.資料太少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.子圖用不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動態調整切分區間,&gt;250個資料才用5*5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.解讀錯誤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融券餘額(張)
+券資比
+營業毛利成長率
+已實現銷貨毛利成長率
+投信買賣超日數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.相關係數F檢定不適合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <color theme="4"/>
         <rFont val="新細明體"/>
         <family val="1"/>
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
-      <t>股價淨值&lt;1,收盤價&gt;季線</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+      <t>Q1季報發布後,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="5"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3個月內</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="4"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>比大盤貨櫃買好的個股</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,的表現</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="4"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Q1季報發布後,6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="5"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>個月內</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="4"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>比大盤貨櫃買好的個股</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,的表現</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>券資比
+單月營收與上月比％</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">成長月數
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日均量
+區間融券餘額</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>張</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">變化
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日均量</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="4"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Q1季報發布後,雙率雙升的個股</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="新細明體"/>
         <family val="2"/>
@@ -416,7 +362,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="5"/>
         <rFont val="新細明體"/>
         <family val="1"/>
@@ -427,7 +373,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="新細明體"/>
         <family val="2"/>
@@ -436,6 +382,202 @@
       </rPr>
       <t>的表現</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="4"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Q1季報發布後,雙率雙升的個股</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="5"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6個月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的表現</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="4"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Q1季報發布後,股價淨值&lt;1,收盤價&gt;季線</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="5"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3個月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的表現</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="4"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Q1季報發布後,股價淨值&lt;1,收盤價&gt;季線</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="5"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>個月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的表現</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="4"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Q1季報發布後,股價淨值&lt;1,收盤價&gt;季線</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="5"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>個月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的表現(3*3)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有順序的X放到子圖X軸,用bar chart…等等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高ROE/低PB?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,7 +585,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -460,7 +602,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="4"/>
       <name val="新細明體"/>
       <family val="1"/>
@@ -468,7 +626,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="5"/>
       <name val="新細明體"/>
       <family val="1"/>
@@ -476,35 +634,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Consolas"/>
-      <family val="3"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Consolas"/>
-      <family val="2"/>
-      <charset val="136"/>
+      <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -513,12 +669,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -526,27 +688,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -862,133 +1063,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DC0E7C-CC77-44CA-810A-DA3023577F0A}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="19.8"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="54.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.33203125" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="54.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.33203125" style="2" customWidth="1"/>
+    <col min="4" max="9" width="8.88671875" style="2"/>
+    <col min="10" max="10" width="25.77734375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="23" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="99">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2">
+        <v>117</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="90">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1674</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="99">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>66</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="99">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2">
+        <v>535</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="99">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>229</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" ht="99">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2">
+        <v>113</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s">
-        <v>3</v>
-      </c>
+      <c r="K7" s="7"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="8" spans="1:13" ht="99">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="3" spans="1:11" ht="54" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="81" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="81" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <v>535</v>
-      </c>
-      <c r="J5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:13">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
     </row>

--- a/實驗記錄.xlsx
+++ b/實驗記錄.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\中央資管\論文\自己的論文\Data_Browsing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E69E94-6053-438A-B161-F27EDB2DFF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646E9D7B-2C37-4492-B200-31C8D4D2C684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{081E8F96-FC13-4278-B82D-E5FFD4D02652}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>usecase</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -580,12 +580,15 @@
     <t>高ROE/低PB?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>'2023/05/16','2023/07/17'</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -659,8 +662,14 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -676,6 +685,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,7 +724,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -734,9 +749,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -748,6 +760,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1066,7 +1084,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8"/>
@@ -1084,7 +1102,7 @@
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1096,7 +1114,7 @@
       <c r="J1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1104,7 +1122,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1116,7 +1134,7 @@
       <c r="J2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>12</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -1127,7 +1145,7 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1147,10 +1165,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="99">
-      <c r="A4" s="8">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1158,6 +1176,9 @@
       </c>
       <c r="D4" s="2">
         <v>66</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>15</v>
@@ -1170,7 +1191,7 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1190,7 +1211,7 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1208,7 +1229,7 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1226,7 +1247,7 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1254,5 +1275,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>